--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6770604099031926</v>
+        <v>0.6770604099031927</v>
       </c>
       <c r="C2">
         <v>0.5789242513682565</v>
       </c>
       <c r="D2">
-        <v>0.5649496127737718</v>
+        <v>0.5649496127737716</v>
       </c>
       <c r="E2">
-        <v>0.5804057579587106</v>
+        <v>0.5804057579587105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="C4">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="D4">
-        <v>0.4930538134380273</v>
+        <v>0.4930538134380272</v>
       </c>
       <c r="E4">
         <v>0.513683334417758</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="C5">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="D5">
-        <v>0.4930538134380274</v>
+        <v>0.4930538134380273</v>
       </c>
       <c r="E5">
         <v>0.513683334417758</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="C6">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="D6">
-        <v>0.4930538134380274</v>
+        <v>0.4930538134380273</v>
       </c>
       <c r="E6">
         <v>0.513683334417758</v>
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.69720711251173</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="C7">
         <v>0.609372313844689</v>
       </c>
       <c r="D7">
-        <v>0.6219640689495456</v>
+        <v>0.6219640689495455</v>
       </c>
       <c r="E7">
         <v>0.6529644296755394</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.69720711251173</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="C8">
         <v>0.6093723138446889</v>
@@ -499,7 +499,7 @@
         <v>0.6219640689495456</v>
       </c>
       <c r="E8">
-        <v>0.6529644296755395</v>
+        <v>0.6529644296755394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6972071125117301</v>
+        <v>0.69720711251173</v>
       </c>
       <c r="C10">
-        <v>0.6093723138446889</v>
+        <v>0.609372313844689</v>
       </c>
       <c r="D10">
-        <v>0.6219640689495456</v>
+        <v>0.6219640689495455</v>
       </c>
       <c r="E10">
         <v>0.6529644296755394</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6972071125117301</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="C11">
         <v>0.6093723138446889</v>
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6061705156093438</v>
+        <v>0.6061705156093437</v>
       </c>
       <c r="C12">
         <v>0.5183018079406878</v>
@@ -629,10 +629,10 @@
         <v>0.7063684421094018</v>
       </c>
       <c r="C16">
-        <v>0.6110309277526876</v>
+        <v>0.6110309277526877</v>
       </c>
       <c r="D16">
-        <v>0.6034273598420548</v>
+        <v>0.6034273598420546</v>
       </c>
       <c r="E16">
         <v>0.6108447296320033</v>
@@ -643,13 +643,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6061705156093438</v>
+        <v>0.6061705156093437</v>
       </c>
       <c r="C17">
         <v>0.5183018079406877</v>
       </c>
       <c r="D17">
-        <v>0.5139878124880423</v>
+        <v>0.5139878124880422</v>
       </c>
       <c r="E17">
         <v>0.5387437898893688</v>
@@ -666,7 +666,7 @@
         <v>0.57660336696369</v>
       </c>
       <c r="D18">
-        <v>0.5823614333274184</v>
+        <v>0.5823614333274183</v>
       </c>
       <c r="E18">
         <v>0.6207365870683349</v>
@@ -683,7 +683,7 @@
         <v>0.6110309277526876</v>
       </c>
       <c r="D19">
-        <v>0.6034273598420548</v>
+        <v>0.6034273598420546</v>
       </c>
       <c r="E19">
         <v>0.6108447296320033</v>
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.7063684421094018</v>
+        <v>0.7063684421094019</v>
       </c>
       <c r="C20">
         <v>0.6110309277526876</v>
@@ -717,7 +717,7 @@
         <v>0.6110309277526876</v>
       </c>
       <c r="D21">
-        <v>0.6034273598420549</v>
+        <v>0.6034273598420548</v>
       </c>
       <c r="E21">
         <v>0.6108447296320033</v>
@@ -728,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.7067773844880969</v>
+        <v>0.7067773844880967</v>
       </c>
       <c r="C22">
-        <v>0.5862965481334331</v>
+        <v>0.5862965481334332</v>
       </c>
       <c r="D22">
         <v>0.534325771103084</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.6770604099031926</v>
+        <v>0.6770604099031927</v>
       </c>
       <c r="C23">
         <v>0.5789242513682565</v>
@@ -754,7 +754,7 @@
         <v>0.5649496127737718</v>
       </c>
       <c r="E23">
-        <v>0.5804057579587106</v>
+        <v>0.5804057579587105</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.516375247254754</v>
+        <v>0.5163752472547539</v>
       </c>
       <c r="C24">
         <v>0.4223558550269567</v>
@@ -771,7 +771,7 @@
         <v>0.4009189412880479</v>
       </c>
       <c r="E24">
-        <v>0.4074054610414095</v>
+        <v>0.4074054610414096</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -788,7 +788,7 @@
         <v>0.4009189412880478</v>
       </c>
       <c r="E25">
-        <v>0.4074054610414095</v>
+        <v>0.4074054610414096</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.516375247254754</v>
+        <v>0.5163752472547539</v>
       </c>
       <c r="C26">
         <v>0.4223558550269567</v>
@@ -822,7 +822,7 @@
         <v>0.5597541856551072</v>
       </c>
       <c r="E27">
-        <v>0.5590570792150914</v>
+        <v>0.5590570792150915</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -836,10 +836,10 @@
         <v>0.5860618912073483</v>
       </c>
       <c r="D28">
-        <v>0.5597541856551073</v>
+        <v>0.5597541856551072</v>
       </c>
       <c r="E28">
-        <v>0.5590570792150914</v>
+        <v>0.5590570792150915</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -853,7 +853,7 @@
         <v>0.5860618912073483</v>
       </c>
       <c r="D29">
-        <v>0.5597541856551073</v>
+        <v>0.5597541856551072</v>
       </c>
       <c r="E29">
         <v>0.5590570792150915</v>
@@ -904,10 +904,10 @@
         <v>0.7947464499851491</v>
       </c>
       <c r="D32">
-        <v>0.842768349271545</v>
+        <v>0.8427683492715451</v>
       </c>
       <c r="E32">
-        <v>0.7983191071929628</v>
+        <v>0.798319107192963</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -921,7 +921,7 @@
         <v>0.8363987219585732</v>
       </c>
       <c r="D33">
-        <v>0.8902716640511406</v>
+        <v>0.8902716640511408</v>
       </c>
       <c r="E33">
         <v>0.8416216226974813</v>
@@ -935,13 +935,13 @@
         <v>0.843182037104559</v>
       </c>
       <c r="C34">
-        <v>0.819979080702392</v>
+        <v>0.8199790807023923</v>
       </c>
       <c r="D34">
-        <v>0.8431860182922102</v>
+        <v>0.8431860182922104</v>
       </c>
       <c r="E34">
-        <v>0.780416211257499</v>
+        <v>0.7804162112574989</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -949,16 +949,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.8870458969766211</v>
+        <v>0.887045896976621</v>
       </c>
       <c r="C35">
         <v>0.877500240323756</v>
       </c>
       <c r="D35">
-        <v>0.8796147183507463</v>
+        <v>0.8796147183507464</v>
       </c>
       <c r="E35">
-        <v>0.8110338517766937</v>
+        <v>0.8110338517766938</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.7178968527387888</v>
+        <v>0.7178968527387889</v>
       </c>
       <c r="C36">
-        <v>0.7230162642562417</v>
+        <v>0.7230162642562418</v>
       </c>
       <c r="D36">
-        <v>0.7880090135660325</v>
+        <v>0.7880090135660327</v>
       </c>
       <c r="E36">
-        <v>0.7559735177276655</v>
+        <v>0.7559735177276654</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,10 +983,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8443187564018223</v>
+        <v>0.8443187564018224</v>
       </c>
       <c r="C37">
-        <v>0.8716251719536564</v>
+        <v>0.8716251719536565</v>
       </c>
       <c r="D37">
         <v>0.918258919025586</v>
@@ -1020,13 +1020,13 @@
         <v>0.8900622408431595</v>
       </c>
       <c r="C39">
-        <v>0.895866275012857</v>
+        <v>0.8958662750128571</v>
       </c>
       <c r="D39">
         <v>0.9284640193509149</v>
       </c>
       <c r="E39">
-        <v>0.8566802789714666</v>
+        <v>0.8566802789714664</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1040,7 +1040,7 @@
         <v>0.8493397960129581</v>
       </c>
       <c r="D40">
-        <v>0.8537816226893136</v>
+        <v>0.8537816226893137</v>
       </c>
       <c r="E40">
         <v>0.7788077771816078</v>
@@ -1051,16 +1051,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.8870458969766211</v>
+        <v>0.887045896976621</v>
       </c>
       <c r="C41">
-        <v>0.877500240323756</v>
+        <v>0.8775002403237561</v>
       </c>
       <c r="D41">
-        <v>0.8796147183507463</v>
+        <v>0.8796147183507466</v>
       </c>
       <c r="E41">
-        <v>0.8110338517766937</v>
+        <v>0.8110338517766938</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1071,7 +1071,7 @@
         <v>0.7845052409119215</v>
       </c>
       <c r="C42">
-        <v>0.7852213501739191</v>
+        <v>0.7852213501739194</v>
       </c>
       <c r="D42">
         <v>0.8245622635555749</v>
@@ -1088,7 +1088,7 @@
         <v>0.757194188111128</v>
       </c>
       <c r="C43">
-        <v>0.7436581384572718</v>
+        <v>0.743658138457272</v>
       </c>
       <c r="D43">
         <v>0.7691437280376289</v>
@@ -1111,7 +1111,7 @@
         <v>0.6110829817922375</v>
       </c>
       <c r="E44">
-        <v>0.5863422560010912</v>
+        <v>0.586342256001091</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.7256055114657837</v>
+        <v>0.7256055114657838</v>
       </c>
       <c r="C45">
         <v>0.7230294423355492</v>
@@ -1139,10 +1139,10 @@
         <v>0.8284892555294363</v>
       </c>
       <c r="C46">
-        <v>0.8316464855411975</v>
+        <v>0.8316464855411976</v>
       </c>
       <c r="D46">
-        <v>0.8713521470037082</v>
+        <v>0.8713521470037083</v>
       </c>
       <c r="E46">
         <v>0.8112325381004899</v>
@@ -1153,16 +1153,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.6613619286415678</v>
+        <v>0.661361928641568</v>
       </c>
       <c r="C47">
-        <v>0.6353215656400638</v>
+        <v>0.6353215656400639</v>
       </c>
       <c r="D47">
-        <v>0.6890606416922612</v>
+        <v>0.6890606416922611</v>
       </c>
       <c r="E47">
-        <v>0.6667130618788636</v>
+        <v>0.6667130618788634</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1176,7 +1176,7 @@
         <v>0.6844180593292025</v>
       </c>
       <c r="D48">
-        <v>0.7163432749471819</v>
+        <v>0.7163432749471818</v>
       </c>
       <c r="E48">
         <v>0.6858511042043088</v>
@@ -1187,13 +1187,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.6799097749129461</v>
+        <v>0.6799097749129462</v>
       </c>
       <c r="C49">
         <v>0.6102266192668748</v>
       </c>
       <c r="D49">
-        <v>0.6600343636540494</v>
+        <v>0.6600343636540493</v>
       </c>
       <c r="E49">
         <v>0.7244115876091015</v>
@@ -1221,7 +1221,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.5434823831423141</v>
+        <v>0.5434823831423142</v>
       </c>
       <c r="C51">
         <v>0.4807777867605427</v>
@@ -1241,13 +1241,13 @@
         <v>0.515142873936873</v>
       </c>
       <c r="C52">
-        <v>0.4528174007754976</v>
+        <v>0.4528174007754975</v>
       </c>
       <c r="D52">
-        <v>0.4835328654175808</v>
+        <v>0.4835328654175807</v>
       </c>
       <c r="E52">
-        <v>0.5462140007552516</v>
+        <v>0.5462140007552514</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>0.6069358635910928</v>
       </c>
       <c r="E53">
-        <v>0.6736764002491603</v>
+        <v>0.6736764002491605</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1309,7 +1309,7 @@
         <v>0.7224486730287843</v>
       </c>
       <c r="C56">
-        <v>0.6366313752664382</v>
+        <v>0.6366313752664384</v>
       </c>
       <c r="D56">
         <v>0.6522465644373291</v>
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.5535178990298961</v>
+        <v>0.553517899029896</v>
       </c>
       <c r="C57">
         <v>0.4724524488631562</v>
@@ -1332,7 +1332,7 @@
         <v>0.4926114920049406</v>
       </c>
       <c r="E57">
-        <v>0.5410690067859686</v>
+        <v>0.5410690067859687</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1343,13 +1343,13 @@
         <v>0.7695238305907963</v>
       </c>
       <c r="C58">
-        <v>0.6588922736763193</v>
+        <v>0.6588922736763194</v>
       </c>
       <c r="D58">
-        <v>0.6434247660695344</v>
+        <v>0.6434247660695342</v>
       </c>
       <c r="E58">
-        <v>0.6567430507440697</v>
+        <v>0.6567430507440698</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,7 +1357,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.7695238305907963</v>
+        <v>0.7695238305907964</v>
       </c>
       <c r="C59">
         <v>0.6588922736763194</v>
@@ -1366,7 +1366,7 @@
         <v>0.6434247660695342</v>
       </c>
       <c r="E59">
-        <v>0.6567430507440697</v>
+        <v>0.6567430507440698</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>0.4564173141613587</v>
       </c>
       <c r="E60">
-        <v>0.4654238246015606</v>
+        <v>0.4654238246015607</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.568808340821932</v>
+        <v>0.5688083408219321</v>
       </c>
       <c r="C61">
         <v>0.4801988156712858</v>
       </c>
       <c r="D61">
-        <v>0.4564173141613588</v>
+        <v>0.4564173141613587</v>
       </c>
       <c r="E61">
-        <v>0.4654238246015606</v>
+        <v>0.4654238246015607</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.3346300284418046</v>
+        <v>0.3346300284418045</v>
       </c>
       <c r="C62">
         <v>0.2708702243127799</v>
@@ -1417,7 +1417,7 @@
         <v>0.2562736837921841</v>
       </c>
       <c r="E62">
-        <v>0.2708024213887155</v>
+        <v>0.2708024213887156</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.3346300284418046</v>
+        <v>0.3346300284418045</v>
       </c>
       <c r="C63">
         <v>0.2708702243127799</v>
@@ -1434,7 +1434,7 @@
         <v>0.2562736837921841</v>
       </c>
       <c r="E63">
-        <v>0.2708024213887155</v>
+        <v>0.2708024213887156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.2305350604571148</v>
+        <v>0.2305350604571147</v>
       </c>
       <c r="C64">
         <v>0.185696632025683</v>
@@ -1476,16 +1476,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.9064815164799664</v>
+        <v>0.9064815164799666</v>
       </c>
       <c r="C66">
-        <v>0.8318222252052231</v>
+        <v>0.8318222252052232</v>
       </c>
       <c r="D66">
         <v>0.7883161282582776</v>
       </c>
       <c r="E66">
-        <v>0.7057978958032961</v>
+        <v>0.705797895803296</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1496,7 +1496,7 @@
         <v>0.8717658648493042</v>
       </c>
       <c r="C67">
-        <v>0.7835312456637349</v>
+        <v>0.7835312456637351</v>
       </c>
       <c r="D67">
         <v>0.7313519169557465</v>
@@ -1513,7 +1513,7 @@
         <v>0.9064815164799666</v>
       </c>
       <c r="C68">
-        <v>0.8318222252052231</v>
+        <v>0.8318222252052232</v>
       </c>
       <c r="D68">
         <v>0.7883161282582776</v>
@@ -1527,16 +1527,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.8717658648493041</v>
+        <v>0.8717658648493043</v>
       </c>
       <c r="C69">
-        <v>0.7835312456637349</v>
+        <v>0.783531245663735</v>
       </c>
       <c r="D69">
         <v>0.7313519169557465</v>
       </c>
       <c r="E69">
-        <v>0.6635115959465699</v>
+        <v>0.6635115959465698</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1547,7 +1547,7 @@
         <v>0.8717658648493041</v>
       </c>
       <c r="C70">
-        <v>0.7835312456637349</v>
+        <v>0.783531245663735</v>
       </c>
       <c r="D70">
         <v>0.7313519169557465</v>
@@ -1564,7 +1564,7 @@
         <v>0.8671033936050396</v>
       </c>
       <c r="C71">
-        <v>0.7635149225175585</v>
+        <v>0.7635149225175584</v>
       </c>
       <c r="D71">
         <v>0.7304157057048625</v>
@@ -1578,13 +1578,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.8403967231673921</v>
+        <v>0.8403967231673922</v>
       </c>
       <c r="C72">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="D72">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="E72">
         <v>0.6237308117000442</v>
@@ -1598,13 +1598,13 @@
         <v>0.8403967231673921</v>
       </c>
       <c r="C73">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="D73">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="E73">
-        <v>0.6237308117000442</v>
+        <v>0.623730811700044</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1612,16 +1612,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8403967231673921</v>
+        <v>0.8403967231673922</v>
       </c>
       <c r="C74">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="D74">
-        <v>0.6919593503726609</v>
+        <v>0.6919593503726611</v>
       </c>
       <c r="E74">
-        <v>0.6237308117000442</v>
+        <v>0.623730811700044</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1638,7 +1638,7 @@
         <v>0.5736212235261697</v>
       </c>
       <c r="E75">
-        <v>0.5080040544266964</v>
+        <v>0.5080040544266965</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1646,10 +1646,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8717658648493039</v>
+        <v>0.8717658648493041</v>
       </c>
       <c r="C76">
-        <v>0.7835312456637349</v>
+        <v>0.7835312456637351</v>
       </c>
       <c r="D76">
         <v>0.7313519169557465</v>
@@ -1669,7 +1669,7 @@
         <v>0.7669710875462793</v>
       </c>
       <c r="D77">
-        <v>0.6892411990989552</v>
+        <v>0.6892411990989553</v>
       </c>
       <c r="E77">
         <v>0.6059719782358408</v>
@@ -1689,7 +1689,7 @@
         <v>0.6892411990989552</v>
       </c>
       <c r="E78">
-        <v>0.6059719782358407</v>
+        <v>0.6059719782358408</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1706,7 +1706,7 @@
         <v>0.6892411990989553</v>
       </c>
       <c r="E79">
-        <v>0.6059719782358407</v>
+        <v>0.6059719782358408</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1731,13 +1731,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.8744042778993142</v>
+        <v>0.8744042778993143</v>
       </c>
       <c r="C81">
         <v>0.7911856302734517</v>
       </c>
       <c r="D81">
-        <v>0.7851184453387094</v>
+        <v>0.7851184453387097</v>
       </c>
       <c r="E81">
         <v>0.7349622985367303</v>
@@ -1754,7 +1754,7 @@
         <v>0.7911856302734517</v>
       </c>
       <c r="D82">
-        <v>0.7851184453387096</v>
+        <v>0.7851184453387097</v>
       </c>
       <c r="E82">
         <v>0.7349622985367303</v>
@@ -1802,13 +1802,13 @@
         <v>0.7467224045565621</v>
       </c>
       <c r="C85">
-        <v>0.6727821780652352</v>
+        <v>0.6727821780652354</v>
       </c>
       <c r="D85">
         <v>0.616141316355184</v>
       </c>
       <c r="E85">
-        <v>0.5400683437025028</v>
+        <v>0.5400683437025027</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1819,10 +1819,10 @@
         <v>0.7467224045565621</v>
       </c>
       <c r="C86">
-        <v>0.6727821780652352</v>
+        <v>0.6727821780652354</v>
       </c>
       <c r="D86">
-        <v>0.6161413163551839</v>
+        <v>0.616141316355184</v>
       </c>
       <c r="E86">
         <v>0.5400683437025028</v>
@@ -1833,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8138698100562691</v>
+        <v>0.813869810056269</v>
       </c>
       <c r="C87">
         <v>0.7166610758508382</v>
@@ -1842,7 +1842,7 @@
         <v>0.6334906786091909</v>
       </c>
       <c r="E87">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1859,7 +1859,7 @@
         <v>0.6334906786091908</v>
       </c>
       <c r="E88">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1876,7 +1876,7 @@
         <v>0.6334906786091908</v>
       </c>
       <c r="E89">
-        <v>0.5545195134349676</v>
+        <v>0.5545195134349675</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1924,7 +1924,7 @@
         <v>1.523621984017227</v>
       </c>
       <c r="D92">
-        <v>1.714013274111475</v>
+        <v>1.714013274111476</v>
       </c>
       <c r="E92">
         <v>1.591292987913244</v>
@@ -2111,7 +2111,7 @@
         <v>1.239060393570554</v>
       </c>
       <c r="D103">
-        <v>1.352607615695029</v>
+        <v>1.35260761569503</v>
       </c>
       <c r="E103">
         <v>1.275995510636288</v>
@@ -2193,7 +2193,7 @@
         <v>1.070690560576943</v>
       </c>
       <c r="C108">
-        <v>1.108674640198209</v>
+        <v>1.10867464019821</v>
       </c>
       <c r="D108">
         <v>1.208487033193066</v>
@@ -2213,7 +2213,7 @@
         <v>1.102864338696351</v>
       </c>
       <c r="D109">
-        <v>1.207783413951536</v>
+        <v>1.207783413951537</v>
       </c>
       <c r="E109">
         <v>1.182405834085744</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9075442550245343</v>
+        <v>0.9075442550245342</v>
       </c>
       <c r="C118">
         <v>0.9133576216203363</v>
@@ -2383,10 +2383,10 @@
         <v>0.9156355341890277</v>
       </c>
       <c r="D119">
-        <v>0.9856019482451996</v>
+        <v>0.9856019482451998</v>
       </c>
       <c r="E119">
-        <v>0.9844348154283181</v>
+        <v>0.9844348154283182</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2403,7 +2403,7 @@
         <v>1.549468623682753</v>
       </c>
       <c r="E120">
-        <v>1.485051719824985</v>
+        <v>1.485051719824986</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2420,7 +2420,7 @@
         <v>1.549468623682753</v>
       </c>
       <c r="E121">
-        <v>1.485051719824985</v>
+        <v>1.485051719824986</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2496,10 +2496,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.023327342765816</v>
+        <v>1.023327342765817</v>
       </c>
       <c r="C126">
-        <v>1.050177481678078</v>
+        <v>1.050177481678079</v>
       </c>
       <c r="D126">
         <v>1.139874734923805</v>
@@ -2516,7 +2516,7 @@
         <v>1.076175490377606</v>
       </c>
       <c r="C127">
-        <v>1.105096264000139</v>
+        <v>1.10509626400014</v>
       </c>
       <c r="D127">
         <v>1.191469465369372</v>
@@ -2581,7 +2581,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.354729459210792</v>
+        <v>1.354729459210793</v>
       </c>
       <c r="C131">
         <v>1.453378033190769</v>
@@ -2655,7 +2655,7 @@
         <v>1.386086806336798</v>
       </c>
       <c r="D135">
-        <v>1.494231151041391</v>
+        <v>1.494231151041392</v>
       </c>
       <c r="E135">
         <v>1.39455111704644</v>
@@ -2672,7 +2672,7 @@
         <v>1.298520697239982</v>
       </c>
       <c r="D136">
-        <v>1.37932538555345</v>
+        <v>1.379325385553451</v>
       </c>
       <c r="E136">
         <v>1.26931932249185</v>
@@ -2689,7 +2689,7 @@
         <v>1.296394165120965</v>
       </c>
       <c r="D137">
-        <v>1.375187571032221</v>
+        <v>1.375187571032222</v>
       </c>
       <c r="E137">
         <v>1.269691266490287</v>
@@ -2706,7 +2706,7 @@
         <v>1.296394165120965</v>
       </c>
       <c r="D138">
-        <v>1.375187571032221</v>
+        <v>1.375187571032222</v>
       </c>
       <c r="E138">
         <v>1.269691266490287</v>
@@ -3009,7 +3009,7 @@
         <v>1.025107230490702</v>
       </c>
       <c r="C156">
-        <v>1.065431110713732</v>
+        <v>1.065431110713733</v>
       </c>
       <c r="D156">
         <v>1.093407148652094</v>
@@ -3026,7 +3026,7 @@
         <v>1.019028362702638</v>
       </c>
       <c r="C157">
-        <v>1.038785996784933</v>
+        <v>1.038785996784934</v>
       </c>
       <c r="D157">
         <v>1.063283014061067</v>
@@ -3066,7 +3066,7 @@
         <v>1.236338962498405</v>
       </c>
       <c r="E159">
-        <v>1.143292353399533</v>
+        <v>1.143292353399532</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3083,7 +3083,7 @@
         <v>1.085453080546463</v>
       </c>
       <c r="E160">
-        <v>1.008541167734632</v>
+        <v>1.008541167734633</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3108,7 +3108,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.959731719391267</v>
+        <v>0.9597317193912669</v>
       </c>
       <c r="C162">
         <v>0.9743994763152179</v>
@@ -3134,7 +3134,7 @@
         <v>1.268151400684942</v>
       </c>
       <c r="E163">
-        <v>1.187371665679263</v>
+        <v>1.187371665679262</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3196,13 +3196,13 @@
         <v>0.9473828388919421</v>
       </c>
       <c r="C167">
-        <v>0.9639299250047068</v>
+        <v>0.9639299250047069</v>
       </c>
       <c r="D167">
         <v>1.011544375508533</v>
       </c>
       <c r="E167">
-        <v>0.9558914590065104</v>
+        <v>0.9558914590065102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3216,10 +3216,10 @@
         <v>0.8780855871632011</v>
       </c>
       <c r="D168">
-        <v>0.9213239353944722</v>
+        <v>0.9213239353944723</v>
       </c>
       <c r="E168">
-        <v>0.8780949549032323</v>
+        <v>0.8780949549032319</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3250,7 +3250,7 @@
         <v>1.412635865675608</v>
       </c>
       <c r="D170">
-        <v>1.539453288136813</v>
+        <v>1.539453288136814</v>
       </c>
       <c r="E170">
         <v>1.43596347252841</v>
@@ -3281,7 +3281,7 @@
         <v>1.318189102729343</v>
       </c>
       <c r="C172">
-        <v>1.405926067570613</v>
+        <v>1.405926067570614</v>
       </c>
       <c r="D172">
         <v>1.52876627957461</v>
@@ -3312,7 +3312,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1.333111522851883</v>
+        <v>1.333111522851882</v>
       </c>
       <c r="C174">
         <v>1.423309826232593</v>
@@ -3346,7 +3346,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.182158336262909</v>
+        <v>1.18215833626291</v>
       </c>
       <c r="C176">
         <v>1.242657224362127</v>
@@ -3397,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.168352510096963</v>
+        <v>1.168352510096964</v>
       </c>
       <c r="C179">
         <v>1.225506224267042</v>
@@ -3474,7 +3474,7 @@
         <v>1.0414028516265</v>
       </c>
       <c r="E183">
-        <v>0.9338249238349717</v>
+        <v>0.9338249238349716</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3485,7 +3485,7 @@
         <v>1.115186593811863</v>
       </c>
       <c r="C184">
-        <v>1.138721402193903</v>
+        <v>1.138721402193902</v>
       </c>
       <c r="D184">
         <v>1.15590740102506</v>
@@ -3502,7 +3502,7 @@
         <v>1.115186593811863</v>
       </c>
       <c r="C185">
-        <v>1.138721402193903</v>
+        <v>1.138721402193902</v>
       </c>
       <c r="D185">
         <v>1.15590740102506</v>
@@ -3519,7 +3519,7 @@
         <v>1.033720238338321</v>
       </c>
       <c r="C186">
-        <v>1.043027606644746</v>
+        <v>1.043027606644747</v>
       </c>
       <c r="D186">
         <v>1.052024907249437</v>
@@ -3550,7 +3550,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.019453893865384</v>
+        <v>1.019453893865385</v>
       </c>
       <c r="C188">
         <v>1.025474320377279</v>
@@ -3567,7 +3567,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="C189">
         <v>0.9973127684143225</v>
@@ -3576,7 +3576,7 @@
         <v>1.003882645453216</v>
       </c>
       <c r="E189">
-        <v>0.9136794045303314</v>
+        <v>0.9136794045303313</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3584,7 +3584,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="C190">
         <v>0.9973127684143225</v>
@@ -3593,7 +3593,7 @@
         <v>1.003882645453216</v>
       </c>
       <c r="E190">
-        <v>0.9136794045303314</v>
+        <v>0.9136794045303313</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3658,7 +3658,7 @@
         <v>1.390204356009664</v>
       </c>
       <c r="D194">
-        <v>1.538098040434344</v>
+        <v>1.538098040434345</v>
       </c>
       <c r="E194">
         <v>1.435259613041828</v>
@@ -3692,10 +3692,10 @@
         <v>1.302460579853198</v>
       </c>
       <c r="D196">
-        <v>1.406938510853498</v>
+        <v>1.406938510853499</v>
       </c>
       <c r="E196">
-        <v>1.310470793836473</v>
+        <v>1.310470793836474</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3743,10 +3743,10 @@
         <v>1.229980107580802</v>
       </c>
       <c r="D199">
-        <v>1.323361826469083</v>
+        <v>1.323361826469084</v>
       </c>
       <c r="E199">
-        <v>1.251997918818898</v>
+        <v>1.251997918818897</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3774,10 +3774,10 @@
         <v>1.118460480396674</v>
       </c>
       <c r="C201">
-        <v>1.17636193646718</v>
+        <v>1.176361936467181</v>
       </c>
       <c r="D201">
-        <v>1.285653448477669</v>
+        <v>1.28565344847767</v>
       </c>
       <c r="E201">
         <v>1.236834222772002</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.112804053576242</v>
+        <v>1.112804053576243</v>
       </c>
       <c r="C204">
         <v>1.177159435651853</v>
@@ -3859,7 +3859,7 @@
         <v>1.017747997185505</v>
       </c>
       <c r="C206">
-        <v>0.9966806884495133</v>
+        <v>0.9966806884495135</v>
       </c>
       <c r="D206">
         <v>1.107100727163361</v>
@@ -3873,10 +3873,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.9622790333999796</v>
+        <v>0.9622790333999793</v>
       </c>
       <c r="C207">
-        <v>0.9254740055761235</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="D207">
         <v>1.007024554003531</v>
@@ -3893,13 +3893,13 @@
         <v>0.9622790333999796</v>
       </c>
       <c r="C208">
-        <v>0.9254740055761234</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="D208">
         <v>1.007024554003531</v>
       </c>
       <c r="E208">
-        <v>1.012381411855388</v>
+        <v>1.012381411855389</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3927,7 +3927,7 @@
         <v>0.9622790333999796</v>
       </c>
       <c r="C210">
-        <v>0.9254740055761235</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="D210">
         <v>1.007024554003532</v>
@@ -3947,7 +3947,7 @@
         <v>0.863549902956287</v>
       </c>
       <c r="D211">
-        <v>0.9387114888060535</v>
+        <v>0.9387114888060537</v>
       </c>
       <c r="E211">
         <v>0.9673493736767678</v>
@@ -3978,7 +3978,7 @@
         <v>0.9622790333999796</v>
       </c>
       <c r="C213">
-        <v>0.9254740055761232</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="D213">
         <v>1.007024554003532</v>
@@ -4009,10 +4009,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.8887276455136686</v>
+        <v>0.8887276455136685</v>
       </c>
       <c r="C215">
-        <v>0.8309831786397842</v>
+        <v>0.8309831786397844</v>
       </c>
       <c r="D215">
         <v>0.8833553007108405</v>
@@ -4026,7 +4026,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.828729256776093</v>
+        <v>0.8287292567760928</v>
       </c>
       <c r="C216">
         <v>0.7646241560306528</v>
@@ -4043,7 +4043,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.8331956009854593</v>
+        <v>0.8331956009854592</v>
       </c>
       <c r="C217">
         <v>0.7818212031001772</v>
@@ -4052,7 +4052,7 @@
         <v>0.8358257333909137</v>
       </c>
       <c r="E217">
-        <v>0.8525912380620226</v>
+        <v>0.8525912380620224</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>0.7930059510763433</v>
       </c>
       <c r="E218">
-        <v>0.8131915384599778</v>
+        <v>0.8131915384599777</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.8848933395314343</v>
+        <v>0.8848933395314345</v>
       </c>
       <c r="C219">
         <v>0.8500934280665252</v>
       </c>
       <c r="D219">
-        <v>0.926610429539609</v>
+        <v>0.9266104295396088</v>
       </c>
       <c r="E219">
-        <v>0.954393506956594</v>
+        <v>0.9543935069565939</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.8790936470525484</v>
+        <v>0.8790936470525483</v>
       </c>
       <c r="C220">
         <v>0.8397846735274516</v>
@@ -4103,7 +4103,7 @@
         <v>0.9175554479705944</v>
       </c>
       <c r="E220">
-        <v>0.9457878068827578</v>
+        <v>0.9457878068827575</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,7 +4111,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910362</v>
       </c>
       <c r="C221">
         <v>0.8115127542183835</v>
@@ -4120,7 +4120,7 @@
         <v>0.8790897593788863</v>
       </c>
       <c r="E221">
-        <v>0.9039684963447373</v>
+        <v>0.9039684963447374</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4137,7 +4137,7 @@
         <v>0.926610429539609</v>
       </c>
       <c r="E222">
-        <v>0.954393506956594</v>
+        <v>0.9543935069565939</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4168,10 +4168,10 @@
         <v>0.7613236699133776</v>
       </c>
       <c r="D224">
-        <v>0.7784293209533373</v>
+        <v>0.7784293209533371</v>
       </c>
       <c r="E224">
-        <v>0.8083381728002521</v>
+        <v>0.808338172800252</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,7 +4185,7 @@
         <v>0.8297753604139291</v>
       </c>
       <c r="D225">
-        <v>0.8579198834500513</v>
+        <v>0.8579198834500512</v>
       </c>
       <c r="E225">
         <v>0.8734091216336787</v>
@@ -4196,13 +4196,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.8821923919525474</v>
+        <v>0.8821923919525475</v>
       </c>
       <c r="C226">
-        <v>0.7976902111994986</v>
+        <v>0.7976902111994987</v>
       </c>
       <c r="D226">
-        <v>0.8229271729261516</v>
+        <v>0.8229271729261514</v>
       </c>
       <c r="E226">
         <v>0.8409629615485748</v>
@@ -4216,13 +4216,13 @@
         <v>0.9065768168383311</v>
       </c>
       <c r="C227">
-        <v>0.8506789758270924</v>
+        <v>0.8506789758270926</v>
       </c>
       <c r="D227">
         <v>0.8860338216824505</v>
       </c>
       <c r="E227">
-        <v>0.9007595330375899</v>
+        <v>0.90075953303759</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.8790936470525484</v>
+        <v>0.8790936470525483</v>
       </c>
       <c r="C229">
         <v>0.8397846735274515</v>
@@ -4256,7 +4256,7 @@
         <v>0.9175554479705945</v>
       </c>
       <c r="E229">
-        <v>0.9457878068827578</v>
+        <v>0.9457878068827575</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4287,10 +4287,10 @@
         <v>0.8183696453853562</v>
       </c>
       <c r="D231">
-        <v>0.9032906893370944</v>
+        <v>0.9032906893370943</v>
       </c>
       <c r="E231">
-        <v>0.9392849041849228</v>
+        <v>0.9392849041849229</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,13 +4298,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.8357362071390887</v>
+        <v>0.8357362071390886</v>
       </c>
       <c r="C232">
         <v>0.7750757183582186</v>
       </c>
       <c r="D232">
-        <v>0.8465166628409109</v>
+        <v>0.8465166628409108</v>
       </c>
       <c r="E232">
         <v>0.8748958752347339</v>
@@ -4332,13 +4332,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>0.8322742870251416</v>
+        <v>0.8322742870251414</v>
       </c>
       <c r="C234">
         <v>0.7758966757825618</v>
       </c>
       <c r="D234">
-        <v>0.8568097147472645</v>
+        <v>0.8568097147472644</v>
       </c>
       <c r="E234">
         <v>0.9014744274813183</v>
@@ -4349,13 +4349,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.8322742870251417</v>
+        <v>0.8322742870251414</v>
       </c>
       <c r="C235">
         <v>0.7758966757825618</v>
       </c>
       <c r="D235">
-        <v>0.8568097147472645</v>
+        <v>0.8568097147472644</v>
       </c>
       <c r="E235">
         <v>0.9014744274813183</v>
@@ -4366,7 +4366,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.7785816758544635</v>
+        <v>0.7785816758544634</v>
       </c>
       <c r="C236">
         <v>0.7061247326290678</v>
@@ -4383,7 +4383,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.8870535156547629</v>
+        <v>0.887053515654763</v>
       </c>
       <c r="C237">
         <v>0.8059656900073627</v>
@@ -4392,7 +4392,7 @@
         <v>0.8417164520553727</v>
       </c>
       <c r="E237">
-        <v>0.8647128396592253</v>
+        <v>0.8647128396592254</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4400,7 +4400,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.9017484295438978</v>
+        <v>0.901748429543898</v>
       </c>
       <c r="C238">
         <v>0.8404159744790124</v>
@@ -4409,7 +4409,7 @@
         <v>0.8793038194342047</v>
       </c>
       <c r="E238">
-        <v>0.8999234831971353</v>
+        <v>0.8999234831971356</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.8336107239542269</v>
+        <v>0.833610723954227</v>
       </c>
       <c r="C239">
         <v>0.7327556464920185</v>
@@ -4426,7 +4426,7 @@
         <v>0.765885641174325</v>
       </c>
       <c r="E239">
-        <v>0.7952264444067236</v>
+        <v>0.795226444406724</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4443,7 +4443,7 @@
         <v>0.6903781902372509</v>
       </c>
       <c r="E240">
-        <v>0.695967930868834</v>
+        <v>0.6959679308688339</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4468,7 +4468,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910362</v>
       </c>
       <c r="C242">
         <v>0.8115127542183835</v>
@@ -4494,7 +4494,7 @@
         <v>0.9065388454283512</v>
       </c>
       <c r="E243">
-        <v>0.9326056608247526</v>
+        <v>0.9326056608247527</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4502,7 +4502,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910364</v>
       </c>
       <c r="C244">
         <v>0.8115127542183835</v>
@@ -4536,13 +4536,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.7947651936036215</v>
+        <v>0.7947651936036214</v>
       </c>
       <c r="C246">
         <v>0.7424587516401921</v>
       </c>
       <c r="D246">
-        <v>0.808940734121872</v>
+        <v>0.8089407341218718</v>
       </c>
       <c r="E246">
         <v>0.8507239826460006</v>
@@ -4559,7 +4559,7 @@
         <v>0.742458751640192</v>
       </c>
       <c r="D247">
-        <v>0.808940734121872</v>
+        <v>0.8089407341218718</v>
       </c>
       <c r="E247">
         <v>0.8507239826460006</v>
@@ -4576,7 +4576,7 @@
         <v>0.7647484974324601</v>
       </c>
       <c r="D248">
-        <v>0.8249579810918912</v>
+        <v>0.8249579810918913</v>
       </c>
       <c r="E248">
         <v>0.8714064714767153</v>
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.7796154797839953</v>
+        <v>0.7796154797839954</v>
       </c>
       <c r="C249">
         <v>0.6685088936876817</v>
@@ -4607,7 +4607,7 @@
         <v>1.004033223074399</v>
       </c>
       <c r="C250">
-        <v>1.012327922311473</v>
+        <v>1.012327922311474</v>
       </c>
       <c r="D250">
         <v>1.117445210358976</v>
@@ -4638,10 +4638,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.982492933249799</v>
+        <v>0.9824929332497989</v>
       </c>
       <c r="C252">
-        <v>0.9831297383359121</v>
+        <v>0.9831297383359122</v>
       </c>
       <c r="D252">
         <v>1.092307253453042</v>
@@ -4655,13 +4655,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.8802832685375832</v>
+        <v>0.8802832685375831</v>
       </c>
       <c r="C253">
         <v>0.8503285767067928</v>
       </c>
       <c r="D253">
-        <v>0.9311527905021247</v>
+        <v>0.9311527905021248</v>
       </c>
       <c r="E253">
         <v>0.9377489252534309</v>
@@ -4695,7 +4695,7 @@
         <v>0.8503285767067927</v>
       </c>
       <c r="D255">
-        <v>0.9311527905021247</v>
+        <v>0.9311527905021248</v>
       </c>
       <c r="E255">
         <v>0.9377489252534309</v>
@@ -4706,16 +4706,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.8281272463912501</v>
+        <v>0.8281272463912502</v>
       </c>
       <c r="C256">
         <v>0.7799567079564416</v>
       </c>
       <c r="D256">
-        <v>0.8798012294513611</v>
+        <v>0.8798012294513614</v>
       </c>
       <c r="E256">
-        <v>0.908213295940674</v>
+        <v>0.9082132959406739</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4726,10 +4726,10 @@
         <v>0.7310620366450946</v>
       </c>
       <c r="C257">
-        <v>0.6801972721296384</v>
+        <v>0.6801972721296385</v>
       </c>
       <c r="D257">
-        <v>0.7409984816072398</v>
+        <v>0.7409984816072399</v>
       </c>
       <c r="E257">
         <v>0.7580654318255579</v>
@@ -4743,7 +4743,7 @@
         <v>0.8179555217652814</v>
       </c>
       <c r="C258">
-        <v>0.7884743721357655</v>
+        <v>0.7884743721357658</v>
       </c>
       <c r="D258">
         <v>0.8300057939494145</v>
@@ -4760,7 +4760,7 @@
         <v>0.8179555217652813</v>
       </c>
       <c r="C259">
-        <v>0.7884743721357655</v>
+        <v>0.7884743721357657</v>
       </c>
       <c r="D259">
         <v>0.8300057939494144</v>
@@ -4777,10 +4777,10 @@
         <v>0.5227569614598798</v>
       </c>
       <c r="C260">
-        <v>0.4953207503491977</v>
+        <v>0.4953207503491978</v>
       </c>
       <c r="D260">
-        <v>0.4681145372297417</v>
+        <v>0.4681145372297416</v>
       </c>
       <c r="E260">
         <v>0.4062309844397247</v>
@@ -4794,7 +4794,7 @@
         <v>0.3510778643752695</v>
       </c>
       <c r="C261">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="D261">
         <v>0.2893241320616493</v>
@@ -4814,10 +4814,10 @@
         <v>0.4843310701890298</v>
       </c>
       <c r="D262">
-        <v>0.4679087726285483</v>
+        <v>0.4679087726285484</v>
       </c>
       <c r="E262">
-        <v>0.4141243769942614</v>
+        <v>0.4141243769942613</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>0.4832554658287297</v>
       </c>
       <c r="C263">
-        <v>0.4543730443091589</v>
+        <v>0.454373044309159</v>
       </c>
       <c r="D263">
         <v>0.4353618714114907</v>
       </c>
       <c r="E263">
-        <v>0.3917525336628399</v>
+        <v>0.3917525336628397</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,7 +4845,7 @@
         <v>0.4421260001089494</v>
       </c>
       <c r="C264">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="D264">
         <v>0.3989518436151622</v>
@@ -4859,13 +4859,13 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.4421260001089495</v>
+        <v>0.4421260001089494</v>
       </c>
       <c r="C265">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="D265">
-        <v>0.3989518436151621</v>
+        <v>0.3989518436151622</v>
       </c>
       <c r="E265">
         <v>0.3653638112216108</v>
@@ -4879,7 +4879,7 @@
         <v>0.5561542066610559</v>
       </c>
       <c r="C266">
-        <v>0.5088255270260515</v>
+        <v>0.5088255270260517</v>
       </c>
       <c r="D266">
         <v>0.4691809798786742</v>
@@ -4896,7 +4896,7 @@
         <v>0.4421260001089495</v>
       </c>
       <c r="C267">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="D267">
         <v>0.3989518436151622</v>
@@ -4913,7 +4913,7 @@
         <v>0.3510778643752695</v>
       </c>
       <c r="C268">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="D268">
         <v>0.2893241320616493</v>
@@ -4930,7 +4930,7 @@
         <v>0.3510778643752695</v>
       </c>
       <c r="C269">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="D269">
         <v>0.2893241320616494</v>
@@ -4947,7 +4947,7 @@
         <v>0.3834399307004618</v>
       </c>
       <c r="C270">
-        <v>0.3270528436720863</v>
+        <v>0.3270528436720864</v>
       </c>
       <c r="D270">
         <v>0.3008135266194772</v>
@@ -4961,7 +4961,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.4072581397209273</v>
+        <v>0.4072581397209274</v>
       </c>
       <c r="C271">
         <v>0.3304266661339383</v>
@@ -4978,7 +4978,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.4072581397209273</v>
+        <v>0.4072581397209274</v>
       </c>
       <c r="C272">
         <v>0.3304266661339383</v>
@@ -4998,10 +4998,10 @@
         <v>0.3913062294212122</v>
       </c>
       <c r="C273">
-        <v>0.3389340836547404</v>
+        <v>0.3389340836547405</v>
       </c>
       <c r="D273">
-        <v>0.3089025924499338</v>
+        <v>0.3089025924499337</v>
       </c>
       <c r="E273">
         <v>0.2721767786696517</v>
@@ -5015,7 +5015,7 @@
         <v>0.3913062294212122</v>
       </c>
       <c r="C274">
-        <v>0.3389340836547404</v>
+        <v>0.3389340836547405</v>
       </c>
       <c r="D274">
         <v>0.3089025924499337</v>
@@ -5086,10 +5086,10 @@
         <v>0.670522381047488</v>
       </c>
       <c r="D278">
-        <v>0.6907505413280068</v>
+        <v>0.6907505413280071</v>
       </c>
       <c r="E278">
-        <v>0.7080390846019662</v>
+        <v>0.7080390846019664</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5100,7 +5100,7 @@
         <v>0.7961357186318707</v>
       </c>
       <c r="C279">
-        <v>0.6949394984574163</v>
+        <v>0.6949394984574162</v>
       </c>
       <c r="D279">
         <v>0.7186404585886492</v>
@@ -5123,7 +5123,7 @@
         <v>0.7186404585886491</v>
       </c>
       <c r="E280">
-        <v>0.7240240076526753</v>
+        <v>0.7240240076526752</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0.3391747329549344</v>
       </c>
       <c r="D281">
-        <v>0.2813080996469888</v>
+        <v>0.2813080996469887</v>
       </c>
       <c r="E281">
         <v>0.2347468561296664</v>
@@ -5165,10 +5165,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.4072606077729042</v>
+        <v>0.4072606077729041</v>
       </c>
       <c r="C283">
-        <v>0.3318050227177504</v>
+        <v>0.3318050227177505</v>
       </c>
       <c r="D283">
         <v>0.2998038512726432</v>
@@ -5205,10 +5205,10 @@
         <v>0.3624933192322065</v>
       </c>
       <c r="D285">
-        <v>0.3249749874692948</v>
+        <v>0.3249749874692947</v>
       </c>
       <c r="E285">
-        <v>0.296291604001718</v>
+        <v>0.2962916040017179</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>0.5480792932946182</v>
       </c>
       <c r="C288">
-        <v>0.5394209843206541</v>
+        <v>0.5394209843206543</v>
       </c>
       <c r="D288">
         <v>0.5846923099107546</v>
       </c>
       <c r="E288">
-        <v>0.5943835276226762</v>
+        <v>0.5943835276226761</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5273,10 +5273,10 @@
         <v>0.8214459633199471</v>
       </c>
       <c r="D289">
-        <v>0.8503621348313321</v>
+        <v>0.8503621348313322</v>
       </c>
       <c r="E289">
-        <v>0.8100983657243221</v>
+        <v>0.8100983657243219</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5293,7 +5293,7 @@
         <v>0.7247592647149045</v>
       </c>
       <c r="E290">
-        <v>0.7084080068490993</v>
+        <v>0.7084080068490991</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0.6208908771626847</v>
       </c>
       <c r="E292">
-        <v>0.6329949246769533</v>
+        <v>0.6329949246769534</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5358,7 +5358,7 @@
         <v>0.5458192023581104</v>
       </c>
       <c r="D294">
-        <v>0.5818763838290529</v>
+        <v>0.581876383829053</v>
       </c>
       <c r="E294">
         <v>0.5911652004024788</v>
@@ -5375,7 +5375,7 @@
         <v>0.7918945732852581</v>
       </c>
       <c r="D295">
-        <v>0.8283639907887191</v>
+        <v>0.8283639907887193</v>
       </c>
       <c r="E295">
         <v>0.7956562232142852</v>
@@ -5392,10 +5392,10 @@
         <v>0.8397829372276504</v>
       </c>
       <c r="D296">
-        <v>0.894317909121183</v>
+        <v>0.8943179091211831</v>
       </c>
       <c r="E296">
-        <v>0.8642671504298245</v>
+        <v>0.8642671504298243</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5403,7 +5403,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.7507443754621334</v>
+        <v>0.7507443754621335</v>
       </c>
       <c r="C297">
         <v>0.7470374738481502</v>
@@ -5412,7 +5412,7 @@
         <v>0.7977854862433041</v>
       </c>
       <c r="E297">
-        <v>0.7830715136146494</v>
+        <v>0.7830715136146493</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,13 +5420,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.761833619087198</v>
+        <v>0.7618336190871983</v>
       </c>
       <c r="C298">
         <v>0.7788839875805723</v>
       </c>
       <c r="D298">
-        <v>0.8316766292984124</v>
+        <v>0.8316766292984126</v>
       </c>
       <c r="E298">
         <v>0.8057873927272737</v>
@@ -5446,7 +5446,7 @@
         <v>0.7440467108182638</v>
       </c>
       <c r="E299">
-        <v>0.729696993132513</v>
+        <v>0.7296969931325128</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5460,7 +5460,7 @@
         <v>0.7918945732852581</v>
       </c>
       <c r="D300">
-        <v>0.8283639907887191</v>
+        <v>0.8283639907887193</v>
       </c>
       <c r="E300">
         <v>0.795656223214285</v>
@@ -5480,7 +5480,7 @@
         <v>0.8329492789299824</v>
       </c>
       <c r="E301">
-        <v>0.8122553228986102</v>
+        <v>0.8122553228986101</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.6446648353645992</v>
+        <v>0.6446648353645993</v>
       </c>
       <c r="C303">
         <v>0.5969958650235767</v>
@@ -5514,7 +5514,7 @@
         <v>0.6465730730438306</v>
       </c>
       <c r="E303">
-        <v>0.6515724639706755</v>
+        <v>0.6515724639706756</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5525,13 +5525,13 @@
         <v>0.7074029040556606</v>
       </c>
       <c r="C304">
-        <v>0.6906220763809413</v>
+        <v>0.6906220763809414</v>
       </c>
       <c r="D304">
         <v>0.7037906162609155</v>
       </c>
       <c r="E304">
-        <v>0.6757988049712363</v>
+        <v>0.6757988049712362</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5545,7 +5545,7 @@
         <v>0.6906220763809413</v>
       </c>
       <c r="D305">
-        <v>0.7037906162609157</v>
+        <v>0.7037906162609158</v>
       </c>
       <c r="E305">
         <v>0.6757988049712363</v>
@@ -5556,16 +5556,16 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.7480967884013628</v>
+        <v>0.748096788401363</v>
       </c>
       <c r="C306">
-        <v>0.7267892393016004</v>
+        <v>0.7267892393016006</v>
       </c>
       <c r="D306">
         <v>0.7219057604710902</v>
       </c>
       <c r="E306">
-        <v>0.6772140343107502</v>
+        <v>0.6772140343107503</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5590,13 +5590,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.7056905456579801</v>
+        <v>0.70569054565798</v>
       </c>
       <c r="C308">
         <v>0.6755574348854892</v>
       </c>
       <c r="D308">
-        <v>0.664861318222531</v>
+        <v>0.6648613182225311</v>
       </c>
       <c r="E308">
         <v>0.6355298732368531</v>
@@ -5607,16 +5607,16 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.7480967884013628</v>
+        <v>0.748096788401363</v>
       </c>
       <c r="C309">
-        <v>0.7267892393016004</v>
+        <v>0.7267892393016006</v>
       </c>
       <c r="D309">
         <v>0.7219057604710903</v>
       </c>
       <c r="E309">
-        <v>0.6772140343107502</v>
+        <v>0.6772140343107503</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,13 +5624,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.6674569967773457</v>
+        <v>0.6674569967773456</v>
       </c>
       <c r="C310">
         <v>0.6378831375338511</v>
       </c>
       <c r="D310">
-        <v>0.6443476947543976</v>
+        <v>0.6443476947543977</v>
       </c>
       <c r="E310">
         <v>0.6313604635217952</v>
@@ -5647,7 +5647,7 @@
         <v>0.3856816658149778</v>
       </c>
       <c r="D311">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="E311">
         <v>0.3231679864523245</v>
@@ -5667,7 +5667,7 @@
         <v>0.3980596797253503</v>
       </c>
       <c r="E312">
-        <v>0.352447274275524</v>
+        <v>0.3524472742755241</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5681,7 +5681,7 @@
         <v>0.3856816658149778</v>
       </c>
       <c r="D313">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="E313">
         <v>0.3231679864523245</v>
@@ -5698,7 +5698,7 @@
         <v>0.3856816658149778</v>
       </c>
       <c r="D314">
-        <v>0.348965506247833</v>
+        <v>0.3489655062478331</v>
       </c>
       <c r="E314">
         <v>0.3231679864523245</v>
@@ -5834,7 +5834,7 @@
         <v>0.8661426189340904</v>
       </c>
       <c r="D322">
-        <v>0.915073563127501</v>
+        <v>0.9150735631275011</v>
       </c>
       <c r="E322">
         <v>0.873262833170359</v>
@@ -5882,7 +5882,7 @@
         <v>1.048657917385463</v>
       </c>
       <c r="C325">
-        <v>1.084798437657404</v>
+        <v>1.084798437657405</v>
       </c>
       <c r="D325">
         <v>1.129192835550934</v>
@@ -5899,7 +5899,7 @@
         <v>1.098675288796602</v>
       </c>
       <c r="C326">
-        <v>1.144622279306522</v>
+        <v>1.144622279306523</v>
       </c>
       <c r="D326">
         <v>1.187349683170435</v>
@@ -5916,13 +5916,13 @@
         <v>0.8758848584044689</v>
       </c>
       <c r="C327">
-        <v>0.8404261901087779</v>
+        <v>0.8404261901087781</v>
       </c>
       <c r="D327">
         <v>0.8207068186260917</v>
       </c>
       <c r="E327">
-        <v>0.7659881586582932</v>
+        <v>0.7659881586582933</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5933,7 +5933,7 @@
         <v>0.8682150954089666</v>
       </c>
       <c r="C328">
-        <v>0.8069915490778515</v>
+        <v>0.8069915490778518</v>
       </c>
       <c r="D328">
         <v>0.7867951575244854</v>
@@ -5950,7 +5950,7 @@
         <v>0.8236638027714898</v>
       </c>
       <c r="C329">
-        <v>0.758247160390088</v>
+        <v>0.7582471603900881</v>
       </c>
       <c r="D329">
         <v>0.7268162462175723</v>
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.8682150954089666</v>
+        <v>0.8682150954089665</v>
       </c>
       <c r="C330">
-        <v>0.8069915490778515</v>
+        <v>0.8069915490778516</v>
       </c>
       <c r="D330">
         <v>0.7867951575244855</v>
       </c>
       <c r="E330">
-        <v>0.7283632443046714</v>
+        <v>0.7283632443046715</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5981,7 +5981,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.9314513077284841</v>
+        <v>0.9314513077284842</v>
       </c>
       <c r="C331">
         <v>0.9032191210467738</v>
@@ -6007,7 +6007,7 @@
         <v>0.9001994514272916</v>
       </c>
       <c r="E332">
-        <v>0.8554415508730465</v>
+        <v>0.8554415508730467</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6018,13 +6018,13 @@
         <v>0.940316170668257</v>
       </c>
       <c r="C333">
-        <v>0.9667124728232703</v>
+        <v>0.9667124728232706</v>
       </c>
       <c r="D333">
         <v>1.022192547525694</v>
       </c>
       <c r="E333">
-        <v>0.9741763716825931</v>
+        <v>0.9741763716825933</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6038,10 +6038,10 @@
         <v>0.9599596969854894</v>
       </c>
       <c r="D334">
-        <v>0.9931309898614368</v>
+        <v>0.9931309898614369</v>
       </c>
       <c r="E334">
-        <v>0.9522777768487685</v>
+        <v>0.9522777768487686</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6052,10 +6052,10 @@
         <v>0.8781885374365169</v>
       </c>
       <c r="C335">
-        <v>0.891407386446463</v>
+        <v>0.8914073864464631</v>
       </c>
       <c r="D335">
-        <v>0.9246403648612905</v>
+        <v>0.9246403648612906</v>
       </c>
       <c r="E335">
         <v>0.8897883701632155</v>
@@ -6083,16 +6083,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.5155200777747964</v>
+        <v>0.5155200777747962</v>
       </c>
       <c r="C337">
         <v>0.4565212221118385</v>
       </c>
       <c r="D337">
-        <v>0.495984042583481</v>
+        <v>0.4959840425834811</v>
       </c>
       <c r="E337">
-        <v>0.5559237529811617</v>
+        <v>0.5559237529811616</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6109,7 +6109,7 @@
         <v>0.5391066367462075</v>
       </c>
       <c r="E338">
-        <v>0.6332184658471748</v>
+        <v>0.6332184658471747</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6123,7 +6123,7 @@
         <v>0.4565212221118385</v>
       </c>
       <c r="D339">
-        <v>0.495984042583481</v>
+        <v>0.4959840425834811</v>
       </c>
       <c r="E339">
         <v>0.5559237529811617</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.4223457384381161</v>
+        <v>0.4223457384381162</v>
       </c>
       <c r="C340">
         <v>0.3528784071593133</v>
@@ -6143,7 +6143,7 @@
         <v>0.3797456644586655</v>
       </c>
       <c r="E340">
-        <v>0.4345618973106103</v>
+        <v>0.4345618973106102</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6157,10 +6157,10 @@
         <v>0.37911258768813</v>
       </c>
       <c r="D341">
-        <v>0.4088107629812271</v>
+        <v>0.4088107629812272</v>
       </c>
       <c r="E341">
-        <v>0.470208566264101</v>
+        <v>0.4702085662641009</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6177,7 +6177,7 @@
         <v>0.4055557063756077</v>
       </c>
       <c r="E342">
-        <v>0.4721802028821035</v>
+        <v>0.4721802028821034</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6211,7 +6211,7 @@
         <v>0.3797456644586655</v>
       </c>
       <c r="E344">
-        <v>0.4345618973106103</v>
+        <v>0.4345618973106102</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6245,7 +6245,7 @@
         <v>0.2755603983053457</v>
       </c>
       <c r="E346">
-        <v>0.310427198350539</v>
+        <v>0.3104271983505389</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6293,7 +6293,7 @@
         <v>0.433972537257714</v>
       </c>
       <c r="D349">
-        <v>0.4168481035505135</v>
+        <v>0.4168481035505134</v>
       </c>
       <c r="E349">
         <v>0.4341119334078969</v>
@@ -6460,7 +6460,7 @@
         <v>0.2582705763467728</v>
       </c>
       <c r="C359">
-        <v>0.2072313160590197</v>
+        <v>0.2072313160590198</v>
       </c>
       <c r="D359">
         <v>0.2179926656601302</v>
@@ -6477,7 +6477,7 @@
         <v>0.2582705763467728</v>
       </c>
       <c r="C360">
-        <v>0.2072313160590197</v>
+        <v>0.2072313160590198</v>
       </c>
       <c r="D360">
         <v>0.2179926656601302</v>
@@ -6494,10 +6494,10 @@
         <v>0.632172966290414</v>
       </c>
       <c r="C361">
-        <v>0.5928078228962116</v>
+        <v>0.5928078228962117</v>
       </c>
       <c r="D361">
-        <v>0.6500125620182865</v>
+        <v>0.6500125620182866</v>
       </c>
       <c r="E361">
         <v>0.6823989311186407</v>
@@ -6517,7 +6517,7 @@
         <v>0.4637272086406405</v>
       </c>
       <c r="E362">
-        <v>0.4757822276139663</v>
+        <v>0.4757822276139664</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>0.6721013264557354</v>
       </c>
       <c r="C364">
-        <v>0.6269233962431804</v>
+        <v>0.6269233962431806</v>
       </c>
       <c r="D364">
-        <v>0.6859738685423968</v>
+        <v>0.6859738685423967</v>
       </c>
       <c r="E364">
-        <v>0.6756325048024987</v>
+        <v>0.6756325048024988</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6562,13 +6562,13 @@
         <v>0.6721013264557354</v>
       </c>
       <c r="C365">
-        <v>0.6269233962431804</v>
+        <v>0.6269233962431806</v>
       </c>
       <c r="D365">
         <v>0.6859738685423967</v>
       </c>
       <c r="E365">
-        <v>0.6756325048024987</v>
+        <v>0.6756325048024988</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6579,13 +6579,13 @@
         <v>0.537490310786539</v>
       </c>
       <c r="C366">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="D366">
-        <v>0.4721609036382022</v>
+        <v>0.4721609036382021</v>
       </c>
       <c r="E366">
-        <v>0.4593196743277891</v>
+        <v>0.4593196743277893</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>0.5374903107865391</v>
+        <v>0.537490310786539</v>
       </c>
       <c r="C367">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="D367">
-        <v>0.4721609036382022</v>
+        <v>0.4721609036382021</v>
       </c>
       <c r="E367">
-        <v>0.4593196743277891</v>
+        <v>0.4593196743277893</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,7 +6613,7 @@
         <v>0.6413324968384434</v>
       </c>
       <c r="C368">
-        <v>0.5866422856179698</v>
+        <v>0.5866422856179697</v>
       </c>
       <c r="D368">
         <v>0.6113104557010394</v>
@@ -6630,13 +6630,13 @@
         <v>0.537490310786539</v>
       </c>
       <c r="C369">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="D369">
         <v>0.4721609036382021</v>
       </c>
       <c r="E369">
-        <v>0.4593196743277892</v>
+        <v>0.4593196743277893</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6678,7 +6678,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.5151138412663395</v>
+        <v>0.5151138412663394</v>
       </c>
       <c r="C372">
         <v>0.4225120702085022</v>
@@ -6695,16 +6695,16 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.6592528191782039</v>
+        <v>0.6592528191782038</v>
       </c>
       <c r="C373">
         <v>0.6023531556828773</v>
       </c>
       <c r="D373">
-        <v>0.6572050281261411</v>
+        <v>0.6572050281261412</v>
       </c>
       <c r="E373">
-        <v>0.7082872820273931</v>
+        <v>0.708287282027393</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6715,13 +6715,13 @@
         <v>0.5518100893351012</v>
       </c>
       <c r="C374">
-        <v>0.4928426463986852</v>
+        <v>0.4928426463986854</v>
       </c>
       <c r="D374">
-        <v>0.525757798697297</v>
+        <v>0.5257577986972969</v>
       </c>
       <c r="E374">
-        <v>0.5689016148468827</v>
+        <v>0.5689016148468826</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6732,13 +6732,13 @@
         <v>0.6380705101361434</v>
       </c>
       <c r="C375">
-        <v>0.5633156256975421</v>
+        <v>0.5633156256975422</v>
       </c>
       <c r="D375">
         <v>0.6182504887335911</v>
       </c>
       <c r="E375">
-        <v>0.6642552290275532</v>
+        <v>0.6642552290275531</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6749,13 +6749,13 @@
         <v>0.5376706406589783</v>
       </c>
       <c r="C376">
-        <v>0.4615991457513071</v>
+        <v>0.4615991457513073</v>
       </c>
       <c r="D376">
-        <v>0.491889069570336</v>
+        <v>0.4918890695703358</v>
       </c>
       <c r="E376">
-        <v>0.5309070385163907</v>
+        <v>0.5309070385163905</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6766,13 +6766,13 @@
         <v>0.5376706406589783</v>
       </c>
       <c r="C377">
-        <v>0.4615991457513071</v>
+        <v>0.4615991457513072</v>
       </c>
       <c r="D377">
-        <v>0.491889069570336</v>
+        <v>0.4918890695703358</v>
       </c>
       <c r="E377">
-        <v>0.5309070385163905</v>
+        <v>0.5309070385163904</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6789,7 +6789,7 @@
         <v>0.7527793955253977</v>
       </c>
       <c r="E378">
-        <v>0.7767431948250509</v>
+        <v>0.7767431948250507</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6806,7 +6806,7 @@
         <v>0.7527793955253976</v>
       </c>
       <c r="E379">
-        <v>0.7767431948250509</v>
+        <v>0.7767431948250507</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6820,10 +6820,10 @@
         <v>0.6584028586315555</v>
       </c>
       <c r="D380">
-        <v>0.7104586669103778</v>
+        <v>0.710458666910378</v>
       </c>
       <c r="E380">
-        <v>0.7323092097192727</v>
+        <v>0.7323092097192726</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6837,10 +6837,10 @@
         <v>0.6584028586315555</v>
       </c>
       <c r="D381">
-        <v>0.7104586669103778</v>
+        <v>0.710458666910378</v>
       </c>
       <c r="E381">
-        <v>0.7323092097192727</v>
+        <v>0.7323092097192725</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,7 +6851,7 @@
         <v>0.7112014173718876</v>
       </c>
       <c r="C382">
-        <v>0.6141710539190596</v>
+        <v>0.6141710539190597</v>
       </c>
       <c r="D382">
         <v>0.6169278996928496</v>
@@ -6882,16 +6882,16 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.5727623777359058</v>
+        <v>0.5727623777359059</v>
       </c>
       <c r="C384">
         <v>0.5048149762963684</v>
       </c>
       <c r="D384">
-        <v>0.5567102127416605</v>
+        <v>0.5567102127416607</v>
       </c>
       <c r="E384">
-        <v>0.6052027618823187</v>
+        <v>0.6052027618823186</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6902,13 +6902,13 @@
         <v>0.7122519927323606</v>
       </c>
       <c r="C385">
-        <v>0.6584139019916906</v>
+        <v>0.6584139019916907</v>
       </c>
       <c r="D385">
         <v>0.7394239689319489</v>
       </c>
       <c r="E385">
-        <v>0.7645763773664009</v>
+        <v>0.7645763773664007</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6919,13 +6919,13 @@
         <v>0.4088043289849636</v>
       </c>
       <c r="C386">
-        <v>0.3545357846427462</v>
+        <v>0.3545357846427463</v>
       </c>
       <c r="D386">
         <v>0.3953094460260753</v>
       </c>
       <c r="E386">
-        <v>0.4367040995444147</v>
+        <v>0.4367040995444145</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6936,13 +6936,13 @@
         <v>0.4088043289849636</v>
       </c>
       <c r="C387">
-        <v>0.3545357846427462</v>
+        <v>0.3545357846427463</v>
       </c>
       <c r="D387">
         <v>0.3953094460260753</v>
       </c>
       <c r="E387">
-        <v>0.4367040995444146</v>
+        <v>0.4367040995444145</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6970,13 +6970,13 @@
         <v>0.6153096040526134</v>
       </c>
       <c r="C389">
-        <v>0.5196045992054685</v>
+        <v>0.5196045992054686</v>
       </c>
       <c r="D389">
         <v>0.4410149964765901</v>
       </c>
       <c r="E389">
-        <v>0.3602087524349145</v>
+        <v>0.3602087524349144</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.7346819114259908</v>
+        <v>0.7346819114259907</v>
       </c>
       <c r="C391">
         <v>0.6401857876178613</v>
@@ -7027,7 +7027,7 @@
         <v>0.4410149964765901</v>
       </c>
       <c r="E392">
-        <v>0.3602087524349145</v>
+        <v>0.3602087524349144</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,7 +7035,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.5195403607954792</v>
+        <v>0.5195403607954789</v>
       </c>
       <c r="C393">
         <v>0.4344126727139533</v>
@@ -7075,7 +7075,7 @@
         <v>0.446080888225621</v>
       </c>
       <c r="D395">
-        <v>0.3736005318333034</v>
+        <v>0.3736005318333033</v>
       </c>
       <c r="E395">
         <v>0.3021644985914662</v>
@@ -7089,7 +7089,7 @@
         <v>0.535893119534034</v>
       </c>
       <c r="C396">
-        <v>0.4460808882256209</v>
+        <v>0.446080888225621</v>
       </c>
       <c r="D396">
         <v>0.3736005318333034</v>
@@ -7103,7 +7103,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.7265578095650893</v>
+        <v>0.7265578095650892</v>
       </c>
       <c r="C397">
         <v>0.6163415728498873</v>
@@ -7154,7 +7154,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.5362152807526197</v>
+        <v>0.5362152807526198</v>
       </c>
       <c r="C400">
         <v>0.456515335834466</v>
@@ -7225,10 +7225,10 @@
         <v>0.4887787862105818</v>
       </c>
       <c r="C404">
-        <v>0.415242648395065</v>
+        <v>0.4152426483950649</v>
       </c>
       <c r="D404">
-        <v>0.3339863691758856</v>
+        <v>0.3339863691758855</v>
       </c>
       <c r="E404">
         <v>0.2443012515652587</v>
@@ -7242,7 +7242,7 @@
         <v>0.4887787862105817</v>
       </c>
       <c r="C405">
-        <v>0.415242648395065</v>
+        <v>0.4152426483950649</v>
       </c>
       <c r="D405">
         <v>0.3339863691758855</v>
@@ -7262,10 +7262,10 @@
         <v>0.415242648395065</v>
       </c>
       <c r="D406">
-        <v>0.3339863691758856</v>
+        <v>0.3339863691758855</v>
       </c>
       <c r="E406">
-        <v>0.2443012515652586</v>
+        <v>0.2443012515652587</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7293,7 +7293,7 @@
         <v>0.4448985697040225</v>
       </c>
       <c r="C408">
-        <v>0.3786566794725443</v>
+        <v>0.3786566794725442</v>
       </c>
       <c r="D408">
         <v>0.3077254157468584</v>
@@ -7324,10 +7324,10 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.6467975496215469</v>
+        <v>0.646797549621547</v>
       </c>
       <c r="C410">
-        <v>0.5860978014463983</v>
+        <v>0.5860978014463984</v>
       </c>
       <c r="D410">
         <v>0.5814456456558292</v>
@@ -7347,7 +7347,7 @@
         <v>0.4792370791486901</v>
       </c>
       <c r="D411">
-        <v>0.4769161462849559</v>
+        <v>0.4769161462849558</v>
       </c>
       <c r="E411">
         <v>0.4518487295270212</v>
@@ -7364,7 +7364,7 @@
         <v>0.4792370791486901</v>
       </c>
       <c r="D412">
-        <v>0.4769161462849559</v>
+        <v>0.4769161462849558</v>
       </c>
       <c r="E412">
         <v>0.4518487295270212</v>
@@ -7381,7 +7381,7 @@
         <v>0.4055189445484124</v>
       </c>
       <c r="D413">
-        <v>0.3654592267230762</v>
+        <v>0.3654592267230761</v>
       </c>
       <c r="E413">
         <v>0.3271256714728488</v>
@@ -7392,7 +7392,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.6212339930337659</v>
+        <v>0.621233993033766</v>
       </c>
       <c r="C414">
         <v>0.5469202443815013</v>
@@ -7412,7 +7412,7 @@
         <v>0.6247696649519519</v>
       </c>
       <c r="C415">
-        <v>0.5462986250751302</v>
+        <v>0.5462986250751301</v>
       </c>
       <c r="D415">
         <v>0.5083686334334181</v>
@@ -7443,16 +7443,16 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.5840183854605979</v>
+        <v>0.5840183854605978</v>
       </c>
       <c r="C417">
-        <v>0.4983469835876999</v>
+        <v>0.4983469835876998</v>
       </c>
       <c r="D417">
-        <v>0.4144634619114105</v>
+        <v>0.4144634619114104</v>
       </c>
       <c r="E417">
-        <v>0.3309904789290185</v>
+        <v>0.3309904789290184</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.5840183854605979</v>
+        <v>0.5840183854605978</v>
       </c>
       <c r="C418">
-        <v>0.4983469835876999</v>
+        <v>0.4983469835876998</v>
       </c>
       <c r="D418">
-        <v>0.4144634619114105</v>
+        <v>0.4144634619114104</v>
       </c>
       <c r="E418">
-        <v>0.3309904789290185</v>
+        <v>0.3309904789290184</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,10 +7477,10 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="C419">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D419">
         <v>0.535416743769153</v>
@@ -7497,10 +7497,10 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="C420">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D420">
-        <v>0.5354167437691528</v>
+        <v>0.5354167437691529</v>
       </c>
       <c r="E420">
         <v>0.5019352301324375</v>
@@ -7511,10 +7511,10 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>0.6455816928407861</v>
+        <v>0.645581692840786</v>
       </c>
       <c r="C421">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="D421">
         <v>0.5750998084459027</v>
@@ -7531,7 +7531,7 @@
         <v>0.6455816928407861</v>
       </c>
       <c r="C422">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="D422">
         <v>0.5750998084459028</v>
@@ -7548,10 +7548,10 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="C423">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D423">
-        <v>0.5354167437691529</v>
+        <v>0.535416743769153</v>
       </c>
       <c r="E423">
         <v>0.5019352301324375</v>
@@ -7565,10 +7565,10 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="C424">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D424">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="E424">
         <v>0.5019352301324375</v>
@@ -7582,7 +7582,7 @@
         <v>0.6455816928407861</v>
       </c>
       <c r="C425">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="D425">
         <v>0.5750998084459027</v>
@@ -7596,16 +7596,16 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="C426">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D426">
         <v>0.5354167437691529</v>
       </c>
       <c r="E426">
-        <v>0.5019352301324373</v>
+        <v>0.5019352301324375</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,7 +7616,7 @@
         <v>0.6015004762004682</v>
       </c>
       <c r="C427">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="D427">
         <v>0.5025341597970742</v>
@@ -7633,7 +7633,7 @@
         <v>0.6015004762004681</v>
       </c>
       <c r="C428">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780894</v>
       </c>
       <c r="D428">
         <v>0.5025341597970743</v>
@@ -7647,13 +7647,13 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="C429">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D429">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="E429">
         <v>0.5019352301324375</v>
@@ -7667,7 +7667,7 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="C430">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D430">
         <v>0.535416743769153</v>
@@ -7718,10 +7718,10 @@
         <v>0.6205843309040392</v>
       </c>
       <c r="C433">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D433">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="E433">
         <v>0.5019352301324375</v>
@@ -7738,7 +7738,7 @@
         <v>0.524038092874927</v>
       </c>
       <c r="D434">
-        <v>0.4616323631462164</v>
+        <v>0.4616323631462163</v>
       </c>
       <c r="E434">
         <v>0.4123443633095357</v>
@@ -7752,10 +7752,10 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="C435">
-        <v>0.5616132390406134</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="D435">
-        <v>0.5354167437691529</v>
+        <v>0.5354167437691528</v>
       </c>
       <c r="E435">
         <v>0.5019352301324375</v>
@@ -7769,13 +7769,13 @@
         <v>0.5704179546032245</v>
       </c>
       <c r="C436">
-        <v>0.4748004628206139</v>
+        <v>0.474800462820614</v>
       </c>
       <c r="D436">
         <v>0.3825122998512662</v>
       </c>
       <c r="E436">
-        <v>0.3049463499045429</v>
+        <v>0.304946349904543</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7783,16 +7783,16 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="C437">
         <v>0.3701275184104942</v>
       </c>
       <c r="D437">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E437">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7800,7 +7800,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="C438">
         <v>0.3701275184104942</v>
@@ -7809,7 +7809,7 @@
         <v>0.3327613330300143</v>
       </c>
       <c r="E438">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7817,16 +7817,16 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="C439">
         <v>0.3701275184104942</v>
       </c>
       <c r="D439">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E439">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7840,10 +7840,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D440">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E440">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7857,10 +7857,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D441">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E441">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7868,7 +7868,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.4492549147231804</v>
+        <v>0.4492549147231803</v>
       </c>
       <c r="C442">
         <v>0.3809523827278488</v>
@@ -7888,13 +7888,13 @@
         <v>0.4395302218645255</v>
       </c>
       <c r="C443">
-        <v>0.3701275184104941</v>
+        <v>0.3701275184104942</v>
       </c>
       <c r="D443">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E443">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7902,16 +7902,16 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="C444">
         <v>0.3701275184104942</v>
       </c>
       <c r="D444">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E444">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,10 +7925,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D445">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E445">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7936,7 +7936,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="C446">
         <v>0.3701275184104942</v>
@@ -7945,7 +7945,7 @@
         <v>0.3327613330300143</v>
       </c>
       <c r="E446">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7959,10 +7959,10 @@
         <v>0.3701275184104942</v>
       </c>
       <c r="D447">
-        <v>0.3327613330300143</v>
+        <v>0.3327613330300144</v>
       </c>
       <c r="E447">
-        <v>0.3084643310789611</v>
+        <v>0.3084643310789612</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7973,13 +7973,13 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="C448">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D448">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E448">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7990,7 +7990,7 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="C449">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D449">
         <v>0.5971628921244762</v>
@@ -8007,10 +8007,10 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="C450">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D450">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E450">
         <v>0.5399546756098256</v>
@@ -8024,13 +8024,13 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="C451">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D451">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E451">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8041,10 +8041,10 @@
         <v>0.7388722972159345</v>
       </c>
       <c r="C452">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D452">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E452">
         <v>0.5399546756098256</v>
@@ -8058,10 +8058,10 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="C453">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D453">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E453">
         <v>0.5399546756098256</v>
@@ -8095,7 +8095,7 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D455">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E455">
         <v>0.478261952889477</v>
@@ -8112,7 +8112,7 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D456">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E456">
         <v>0.478261952889477</v>
@@ -8129,10 +8129,10 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D457">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E457">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8163,10 +8163,10 @@
         <v>0.5091454602891846</v>
       </c>
       <c r="D459">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E459">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8180,10 +8180,10 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D460">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E460">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8197,10 +8197,10 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D461">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E461">
-        <v>0.4782619528894769</v>
+        <v>0.478261952889477</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8214,7 +8214,7 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D462">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E462">
         <v>0.478261952889477</v>
@@ -8228,7 +8228,7 @@
         <v>0.6015004762004682</v>
       </c>
       <c r="C463">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780894</v>
       </c>
       <c r="D463">
         <v>0.5025341597970742</v>
@@ -8245,7 +8245,7 @@
         <v>0.6015004762004681</v>
       </c>
       <c r="C464">
-        <v>0.5266241306780894</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="D464">
         <v>0.5025341597970742</v>
@@ -8265,7 +8265,7 @@
         <v>0.524038092874927</v>
       </c>
       <c r="D465">
-        <v>0.4616323631462164</v>
+        <v>0.4616323631462163</v>
       </c>
       <c r="E465">
         <v>0.4123443633095357</v>
@@ -8282,10 +8282,10 @@
         <v>0.502364664721319</v>
       </c>
       <c r="D466">
-        <v>0.4407833649069365</v>
+        <v>0.4407833649069364</v>
       </c>
       <c r="E466">
-        <v>0.3890811579444478</v>
+        <v>0.3890811579444479</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8293,7 +8293,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.6015004762004682</v>
+        <v>0.6015004762004681</v>
       </c>
       <c r="C467">
         <v>0.5266241306780894</v>
@@ -8316,7 +8316,7 @@
         <v>0.6583289115128275</v>
       </c>
       <c r="D468">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E468">
         <v>0.5399546756098256</v>
@@ -8330,13 +8330,13 @@
         <v>0.7388722972159347</v>
       </c>
       <c r="C469">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D469">
         <v>0.5971628921244763</v>
       </c>
       <c r="E469">
-        <v>0.5399546756098255</v>
+        <v>0.5399546756098256</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8347,10 +8347,10 @@
         <v>0.7388722972159347</v>
       </c>
       <c r="C470">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="D470">
-        <v>0.5971628921244762</v>
+        <v>0.5971628921244763</v>
       </c>
       <c r="E470">
         <v>0.5399546756098256</v>
@@ -8364,7 +8364,7 @@
         <v>0.6015004762004682</v>
       </c>
       <c r="C471">
-        <v>0.5266241306780894</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="D471">
         <v>0.5025341597970743</v>
@@ -8384,7 +8384,7 @@
         <v>0.5091454602891847</v>
       </c>
       <c r="D472">
-        <v>0.4971147045156605</v>
+        <v>0.4971147045156606</v>
       </c>
       <c r="E472">
         <v>0.478261952889477</v>
@@ -8401,10 +8401,10 @@
         <v>0.502364664721319</v>
       </c>
       <c r="D473">
-        <v>0.4407833649069365</v>
+        <v>0.4407833649069364</v>
       </c>
       <c r="E473">
-        <v>0.3890811579444478</v>
+        <v>0.3890811579444479</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8418,10 +8418,10 @@
         <v>0.502364664721319</v>
       </c>
       <c r="D474">
-        <v>0.4407833649069364</v>
+        <v>0.4407833649069363</v>
       </c>
       <c r="E474">
-        <v>0.3890811579444477</v>
+        <v>0.3890811579444478</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8429,16 +8429,16 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.5704179546032244</v>
+        <v>0.5704179546032245</v>
       </c>
       <c r="C475">
         <v>0.4748004628206139</v>
       </c>
       <c r="D475">
-        <v>0.3825122998512663</v>
+        <v>0.3825122998512662</v>
       </c>
       <c r="E475">
-        <v>0.3049463499045429</v>
+        <v>0.304946349904543</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>0.433108021852545</v>
       </c>
       <c r="C476">
-        <v>0.3745007487187507</v>
+        <v>0.3745007487187508</v>
       </c>
       <c r="D476">
         <v>0.3432896963391412</v>
@@ -8463,7 +8463,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.433108021852545</v>
+        <v>0.4331080218525449</v>
       </c>
       <c r="C477">
         <v>0.3745007487187507</v>
@@ -8497,7 +8497,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.7885417921909125</v>
+        <v>0.7885417921909124</v>
       </c>
       <c r="C479">
         <v>0.6734618174260889</v>
@@ -8523,7 +8523,7 @@
         <v>0.6120145516650373</v>
       </c>
       <c r="E480">
-        <v>0.5111331468130343</v>
+        <v>0.5111331468130342</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8531,7 +8531,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.8580633277856055</v>
+        <v>0.8580633277856057</v>
       </c>
       <c r="C481">
         <v>0.7466535173094334</v>
@@ -8548,7 +8548,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.8580633277856055</v>
+        <v>0.8580633277856057</v>
       </c>
       <c r="C482">
         <v>0.7466535173094334</v>
@@ -8602,7 +8602,7 @@
         <v>0.842500401959538</v>
       </c>
       <c r="C485">
-        <v>0.7288638761772981</v>
+        <v>0.7288638761772982</v>
       </c>
       <c r="D485">
         <v>0.6120145516650374</v>
@@ -8619,13 +8619,13 @@
         <v>0.8298611826909472</v>
       </c>
       <c r="C486">
-        <v>0.71848685733323</v>
+        <v>0.7184868573332301</v>
       </c>
       <c r="D486">
         <v>0.6079744058736298</v>
       </c>
       <c r="E486">
-        <v>0.5151136256016035</v>
+        <v>0.5151136256016033</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8650,13 +8650,13 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.7719515013385964</v>
+        <v>0.7719515013385965</v>
       </c>
       <c r="C488">
-        <v>0.6563050170415559</v>
+        <v>0.656305017041556</v>
       </c>
       <c r="D488">
-        <v>0.5467170805653965</v>
+        <v>0.5467170805653964</v>
       </c>
       <c r="E488">
         <v>0.4395193367095646</v>
@@ -8670,13 +8670,13 @@
         <v>0.7719515013385965</v>
       </c>
       <c r="C489">
-        <v>0.656305017041556</v>
+        <v>0.6563050170415561</v>
       </c>
       <c r="D489">
-        <v>0.5467170805653965</v>
+        <v>0.5467170805653964</v>
       </c>
       <c r="E489">
-        <v>0.4395193367095647</v>
+        <v>0.4395193367095646</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8684,13 +8684,13 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.9047173797148154</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="C490">
-        <v>0.7940641908033091</v>
+        <v>0.7940641908033093</v>
       </c>
       <c r="D490">
-        <v>0.6973477655186987</v>
+        <v>0.6973477655186989</v>
       </c>
       <c r="E490">
         <v>0.609395055869833</v>
@@ -8701,13 +8701,13 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.8933887922251891</v>
+        <v>0.8933887922251893</v>
       </c>
       <c r="C491">
-        <v>0.7707445081761158</v>
+        <v>0.7707445081761159</v>
       </c>
       <c r="D491">
-        <v>0.6764406247947327</v>
+        <v>0.6764406247947328</v>
       </c>
       <c r="E491">
         <v>0.5823461465878061</v>
@@ -8718,16 +8718,16 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>0.9047173797148153</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="C492">
-        <v>0.794064190803309</v>
+        <v>0.7940641908033091</v>
       </c>
       <c r="D492">
         <v>0.6973477655186988</v>
       </c>
       <c r="E492">
-        <v>0.6093950558698331</v>
+        <v>0.609395055869833</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8735,16 +8735,16 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>0.9047173797148151</v>
+        <v>0.9047173797148154</v>
       </c>
       <c r="C493">
-        <v>0.794064190803309</v>
+        <v>0.7940641908033091</v>
       </c>
       <c r="D493">
         <v>0.6973477655186988</v>
       </c>
       <c r="E493">
-        <v>0.609395055869833</v>
+        <v>0.6093950558698329</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8752,7 +8752,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>0.9047173797148154</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="C494">
         <v>0.7940641908033091</v>
@@ -8778,7 +8778,7 @@
         <v>0.5548911858375353</v>
       </c>
       <c r="E495">
-        <v>0.4368779987297955</v>
+        <v>0.4368779987297954</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,7 +8789,7 @@
         <v>0.8427766704517561</v>
       </c>
       <c r="C496">
-        <v>0.7260645024839759</v>
+        <v>0.726064502483976</v>
       </c>
       <c r="D496">
         <v>0.6258173810214817</v>
@@ -8812,7 +8812,7 @@
         <v>0.5548911858375353</v>
       </c>
       <c r="E497">
-        <v>0.4368779987297955</v>
+        <v>0.4368779987297954</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,10 +8820,10 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.817753620634885</v>
+        <v>0.8177536206348851</v>
       </c>
       <c r="C498">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157695</v>
       </c>
       <c r="D498">
         <v>0.5779713749709943</v>
@@ -8840,7 +8840,7 @@
         <v>0.817753620634885</v>
       </c>
       <c r="C499">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157696</v>
       </c>
       <c r="D499">
         <v>0.5779713749709943</v>
@@ -8857,7 +8857,7 @@
         <v>0.817753620634885</v>
       </c>
       <c r="C500">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157695</v>
       </c>
       <c r="D500">
         <v>0.5779713749709943</v>
@@ -8871,7 +8871,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.8112507540966647</v>
+        <v>0.8112507540966648</v>
       </c>
       <c r="C501">
         <v>0.6896207167844964</v>
